--- a/biology/Botanique/Fraisier_de_Virginie/Fraisier_de_Virginie.xlsx
+++ b/biology/Botanique/Fraisier_de_Virginie/Fraisier_de_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragaria virginiana
 Le Fraisier de Virginie (Fragaria virginiana) est une espèce de plantes herbacées de la famille des Rosaceae, originaire d'Amérique du Nord.
-L'explorateur Jacques Cartier rapporte en Europe des plants de cette espèce depuis le Canada à la fin du XVIe siècle[1].
+L'explorateur Jacques Cartier rapporte en Europe des plants de cette espèce depuis le Canada à la fin du XVIe siècle.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fragaria virginiana est une plante vivace de 2 cm à 20 cm de haut[2] qui fleurit au printemps. Elle se multiplie par marcottage grâce à ses rhizomes qui produisent des rejets rampants, ou stolons, qui s'enracinent pour former de nouveaux plants.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fragaria virginiana est une plante vivace de 2 cm à 20 cm de haut qui fleurit au printemps. Elle se multiplie par marcottage grâce à ses rhizomes qui produisent des rejets rampants, ou stolons, qui s'enracinent pour former de nouveaux plants.
 Les feuilles portent parfois des folioles supplémentaires.
 La plante est trioïque.
-Son fruit est un polyakène[2] rouge-pourpre à chair blanche.
+Son fruit est un polyakène rouge-pourpre à chair blanche.
 Il est très adaptable aux différents sols et climats même chaud et sec.
 Quatre sous-espèces sont connues :
 subsp. glauca (S. Watson) Staudt - est de l'Amérique du nord - Feuilles très glauques. Parfois introgressé par platypetala
@@ -578,9 +594,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce néarctique se trouve à l'est des États-Unis, au Québec et dans les montagnes Rocheuses[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce néarctique se trouve à l'est des États-Unis, au Québec et dans les montagnes Rocheuses.
 </t>
         </is>
       </c>
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,9 +655,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce octoploïde (2n=8x=56)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce octoploïde (2n=8x=56).
 Sa compatibilité génétique totale avec F. ×ananassa en fait une espèce d'importance dans les programmes modernes d'hybridation par sa résistance au froid, à la chaleur, à la sécheresse et à certaines maladies. Un clone de virginiana glauca a été la source principale d'introduction du caractère "jour neutre" des programmes californiens dans les années 1970-1980.
 </t>
         </is>
@@ -667,7 +689,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant l'apparition des hybrides modernes de fraisiers F. ×ananassa le fraisier de Virginie a été cultivé pour ses fruits surtout en Grande-Bretagne et aux États-Unis. Encore de nos jours, il existe une production industrielle faible mais suivie en Grande-Bretagne. C'est la première fraise à murir.
 Quelques cultivars :
